--- a/reports/2026-01-17.xlsx
+++ b/reports/2026-01-17.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-17 20:26 UTC</t>
+          <t>2026-01-17 20:44 UTC</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -630,43 +630,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CAKEUSDT</t>
+          <t>GALAUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$2.15</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$740.18M</t>
+          <t>$374.27M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$1.95M</t>
+          <t>$2.69M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>77.5</v>
+        <v>89.23</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>71.13</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -676,43 +676,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SANDUSDT</t>
+          <t>IMXUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Immutable</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$0.15</t>
+          <t>$0.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$394.28M</t>
+          <t>$601.06M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$2.45M</t>
+          <t>$1.46M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>79.76000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>23.78</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -722,27 +722,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IMXUSDT</t>
+          <t>BERAUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Immutable</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.30</t>
+          <t>$0.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$597.12M</t>
+          <t>$120.13M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$1.13M</t>
+          <t>$5.71M</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -752,13 +752,13 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L4" t="inlineStr"/>
     </row>
@@ -768,43 +768,43 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GALAUSDT</t>
+          <t>CAKEUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$2.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$365.91M</t>
+          <t>$724.53M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$1.48M</t>
+          <t>$2.01M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>69.70999999999999</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
         <v>100</v>
       </c>
       <c r="I5" t="n">
+        <v>100</v>
+      </c>
+      <c r="J5" t="n">
         <v>80</v>
       </c>
-      <c r="J5" t="n">
-        <v>70</v>
-      </c>
       <c r="K5" t="n">
-        <v>11.05</v>
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -814,43 +814,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FILUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Decentraland</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$1.56</t>
+          <t>$0.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$1.15B</t>
+          <t>$336.74M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$4.57M</t>
+          <t>$1.97M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>67.5</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L6" t="inlineStr"/>
     </row>
@@ -860,31 +860,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PENGUUSDT</t>
+          <t>FILUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pudgy Penguins</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$1.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$753.93M</t>
+          <t>$1.15B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$3.47M</t>
+          <t>$4.87M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>65</v>
+        <v>67.5</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
@@ -893,7 +893,7 @@
         <v>80</v>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -921,16 +921,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$1.26B</t>
+          <t>$1.27B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$2.71M</t>
+          <t>$3.01M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>65</v>
+        <v>67.5</v>
       </c>
       <c r="H8" t="n">
         <v>100</v>
@@ -939,7 +939,7 @@
         <v>80</v>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -952,43 +952,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TIAUSDT</t>
+          <t>APEUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>ApeCoin</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.58</t>
+          <t>$0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$505.02M</t>
+          <t>$175.88M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$1.15M</t>
+          <t>$1.36M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>65</v>
+        <v>67.5</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" t="inlineStr"/>
     </row>
@@ -998,40 +998,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>CRVUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$0.38</t>
+          <t>$0.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$384.17M</t>
+          <t>$620.38M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.07M</t>
+          <t>$1.44M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>65</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>80</v>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1044,40 +1044,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AAVEUSDT</t>
+          <t>TIAUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$175.69</t>
+          <t>$0.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$2.69B</t>
+          <t>$506.16M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$5.98M</t>
+          <t>$1.01M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>63.82</v>
+        <v>65</v>
       </c>
       <c r="H11" t="n">
-        <v>54.4</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J11" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1197,17 +1197,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$2.02</t>
+          <t>$1.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$334.63M</t>
+          <t>$312.25M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$14.23M</t>
+          <t>$24.30M</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -1243,17 +1243,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$0.93</t>
+          <t>$0.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$131.40M</t>
+          <t>$120.13M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$4.31M</t>
+          <t>$5.71M</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1294,12 +1294,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$394.28M</t>
+          <t>$412.36M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$2.45M</t>
+          <t>$4.30M</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1325,31 +1325,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>QNTUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Decentraland</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$81.28</t>
+          <t>$0.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$981.15M</t>
+          <t>$336.74M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$2.22M</t>
+          <t>$1.97M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>55.23</v>
+        <v>62.17</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1358,10 +1358,10 @@
         <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>48.17</v>
+        <v>81.11</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -1371,43 +1371,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>METUSDT</t>
+          <t>QNTUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Meteora</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.30</t>
+          <t>$84.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$145.43M</t>
+          <t>$1.01B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$3.40M</t>
+          <t>$2.88M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>49.98</v>
+        <v>60.02</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.45</v>
+        <v>100</v>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>90.29000000000001</v>
+        <v>66.77</v>
       </c>
       <c r="L6" t="inlineStr"/>
     </row>
@@ -1417,43 +1417,43 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DASHUSDT</t>
+          <t>GALAUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dash</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$75.76</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$955.28M</t>
+          <t>$374.27M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$38.78M</t>
+          <t>$2.69M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>35</v>
+        <v>59.26</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>61.75</v>
       </c>
       <c r="L7" t="inlineStr"/>
     </row>
@@ -1463,43 +1463,43 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHZUSDT</t>
+          <t>BLURUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chiliz</t>
+          <t>Blur</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.06</t>
+          <t>$0.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$647.58M</t>
+          <t>$104.32M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$18.71M</t>
+          <t>$1.65M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>48.53</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>46.89</v>
       </c>
       <c r="J8" t="n">
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -1509,43 +1509,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ICPUSDT</t>
+          <t>APEUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>ApeCoin</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$3.98</t>
+          <t>$0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$2.18B</t>
+          <t>$175.88M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$9.79M</t>
+          <t>$1.36M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>35</v>
+        <v>48.19</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>54.61</v>
       </c>
       <c r="L9" t="inlineStr"/>
     </row>
@@ -1555,43 +1555,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZENUSDT</t>
+          <t>METUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Horizen</t>
+          <t>Meteora</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$11.32</t>
+          <t>$0.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$200.51M</t>
+          <t>$140.48M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$8.78M</t>
+          <t>$2.60M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>35</v>
+        <v>47.89</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>72.11</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -1601,43 +1601,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PUMPUSDT</t>
+          <t>IMXUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pump.fun</t>
+          <t>Immutable</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$1.03B</t>
+          <t>$601.06M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$7.74M</t>
+          <t>$1.46M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>37.96</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>35.67</v>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>61.71</v>
       </c>
       <c r="L11" t="inlineStr"/>
     </row>
@@ -1754,17 +1754,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$2.02</t>
+          <t>$1.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$334.63M</t>
+          <t>$312.25M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$14.23M</t>
+          <t>$24.30M</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -1790,27 +1790,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BERAUSDT</t>
+          <t>SANDUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$0.93</t>
+          <t>$0.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$131.40M</t>
+          <t>$412.36M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$4.31M</t>
+          <t>$4.30M</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1836,27 +1836,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SANDUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Decentraland</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.15</t>
+          <t>$0.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$394.28M</t>
+          <t>$336.74M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$2.45M</t>
+          <t>$1.97M</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1882,43 +1882,43 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHZUSDT</t>
+          <t>QNTUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chiliz</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.06</t>
+          <t>$84.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$647.58M</t>
+          <t>$1.01B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$18.71M</t>
+          <t>$2.88M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I5" t="n">
         <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -1928,40 +1928,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>QNTUSDT</t>
+          <t>GALAUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$81.28</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$981.15M</t>
+          <t>$374.27M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$2.22M</t>
+          <t>$2.69M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I6" t="n">
         <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
         <v>100</v>
@@ -1974,43 +1974,43 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>METUSDT</t>
+          <t>BERAUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Meteora</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.30</t>
+          <t>$0.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$145.43M</t>
+          <t>$120.13M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$3.40M</t>
+          <t>$5.71M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>51.5</v>
+        <v>59</v>
       </c>
       <c r="H7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I7" t="n">
         <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L7" t="inlineStr"/>
     </row>
@@ -2020,43 +2020,43 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>XVGUSDT</t>
+          <t>BLURUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Verge</t>
+          <t>Blur</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$0.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$121.99M</t>
+          <t>$104.32M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$1.78M</t>
+          <t>$1.65M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>50</v>
+        <v>55.38</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I8" t="n">
         <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>66.89</v>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -2066,43 +2066,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TAOUSDT</t>
+          <t>CHZUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>Chiliz</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$275.60</t>
+          <t>$0.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$2.92B</t>
+          <t>$634.06M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$3.65M</t>
+          <t>$22.25M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>45.5</v>
+        <v>51.28</v>
       </c>
       <c r="H9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>18.91</v>
       </c>
       <c r="L9" t="inlineStr"/>
     </row>
@@ -2112,43 +2112,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>XTZUSDT</t>
+          <t>IMXUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Immutable</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$0.62</t>
+          <t>$0.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$664.65M</t>
+          <t>$601.06M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.09M</t>
+          <t>$1.46M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>45</v>
+        <v>49.13</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I10" t="n">
         <v>20</v>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>55.67</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -2158,43 +2158,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GALAUSDT</t>
+          <t>ZBCNUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Zebec Network</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$365.91M</t>
+          <t>$317.82M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$1.48M</t>
+          <t>$1.62M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>44.31</v>
+        <v>47</v>
       </c>
       <c r="H11" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="I11" t="n">
         <v>20</v>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>36.57</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr"/>
     </row>
